--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752810.4229293214</v>
+        <v>684376.5094811316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.243055424</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>190.8385894655533</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>121.525102284894</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>33.80371536444976</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>107.5487341549607</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,37 +1311,37 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>97.41446477089333</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1508,7 +1508,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>216.2238178556327</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>47.54698313028634</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>246.7356496276372</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>31.29558213980392</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>99.34508049624269</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>104.5113366705979</v>
+        <v>118.6233054253456</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>235.4745188564439</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0785490664244</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>153.811254775807</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>52.17142175228565</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>90.05347083351249</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>201.7691508349524</v>
+        <v>294.8359431706714</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228949</v>
+        <v>321.5584859445101</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.9425909199081</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>406.9451325002492</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>82.59930608814295</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>128.6652719985047</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.36452066793902</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>242.6710037443159</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G34" t="n">
-        <v>84.4526210585752</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>123.5492650282466</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>357.7328598613693</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,28 +3426,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>70.80276983270129</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.1525299456177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>269.5134569480837</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>107.573192919304</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>81.1159366332232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>62.9536956950552</v>
       </c>
       <c r="V43" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>352.0426595656933</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>221.8199080766637</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>129.0246247964034</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>131.8179123113445</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W3" t="n">
-        <v>210.869396638348</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X3" t="n">
-        <v>210.869396638348</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.2409336147255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>142.7879043335984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,13 +4652,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.057155510636</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901861</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>718.7806050553884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>475.3318284112884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>231.8830517671884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
-        <v>231.8830517671884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X8" t="n">
-        <v>231.8830517671884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.8830517671884</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.6047704292605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>277.6047704292605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>128.6703607680092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>128.6703607680092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>128.6703607680092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>128.6703607680092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L9" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="M9" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N9" t="n">
+        <v>542.809531908403</v>
+      </c>
+      <c r="O9" t="n">
+        <v>781.4136778972854</v>
+      </c>
+      <c r="P9" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="R9" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="S9" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T9" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U9" t="n">
+        <v>913.4938269565423</v>
+      </c>
+      <c r="V9" t="n">
+        <v>678.3417187247995</v>
+      </c>
+      <c r="W9" t="n">
+        <v>434.8929420806995</v>
+      </c>
+      <c r="X9" t="n">
+        <v>227.0414418751666</v>
+      </c>
+      <c r="Y9" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="L9" t="n">
-        <v>249.2442489785619</v>
-      </c>
-      <c r="M9" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="N9" t="n">
-        <v>725.4530095217535</v>
-      </c>
-      <c r="O9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="P9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="R9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="S9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="T9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="U9" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="V9" t="n">
-        <v>728.9050472788933</v>
-      </c>
-      <c r="W9" t="n">
-        <v>485.4562706347933</v>
-      </c>
-      <c r="X9" t="n">
-        <v>277.6047704292605</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>277.6047704292605</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406938</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2598.750641754694</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.988856392786</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.988856392786</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.988856392786</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="12">
@@ -5111,46 +5111,46 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>509.7210873825632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>999.4901647174274</v>
+        <v>1700.340352117536</v>
       </c>
       <c r="C14" t="n">
-        <v>999.4901647174274</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D14" t="n">
-        <v>641.224466110677</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E14" t="n">
-        <v>255.4362135124327</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.090004781549</v>
+        <v>1700.340352117536</v>
       </c>
       <c r="Y14" t="n">
-        <v>1386.090004781549</v>
+        <v>1700.340352117536</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5369,37 +5369,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>336.2769833124028</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>336.2769833124028</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E16" t="n">
-        <v>336.2769833124028</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>336.2769833124028</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.5099885583422</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1125.191652989356</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="C20" t="n">
-        <v>1125.191652989356</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="D20" t="n">
-        <v>766.9259543826058</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2486.755497734769</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2232.993712372861</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>1901.93082502929</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W20" t="n">
-        <v>1901.93082502929</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X20" t="n">
-        <v>1901.93082502929</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y20" t="n">
-        <v>1511.791493053478</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="21">
@@ -5852,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>291.7960311703076</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="C22" t="n">
-        <v>291.7960311703076</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D22" t="n">
-        <v>291.7960311703076</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E22" t="n">
-        <v>291.7960311703076</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>144.9060836723973</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5946,16 +5946,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253591</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,7 +5989,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2317.164380266784</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X23" t="n">
-        <v>1943.698622005704</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y23" t="n">
-        <v>1553.559290029893</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6074,25 +6074,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694738</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7222632714565</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>699.7439769897445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785527</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889451</v>
+        <v>378.7495332794655</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224074</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.54400078133</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6323,7 +6323,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2373.257933130398</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C28" t="n">
-        <v>2373.257933130398</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D28" t="n">
-        <v>2373.257933130398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E28" t="n">
-        <v>2373.257933130398</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2601.247484028416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2601.247484028416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>2373.257933130398</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>2373.257933130398</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785527</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="F29" t="n">
-        <v>792.1933911785527</v>
+        <v>882.5351523994505</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>464.5713442976373</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>137.3766243336402</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757142</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.54400078133</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2360.899071821727</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C31" t="n">
-        <v>2191.96288889382</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D31" t="n">
-        <v>2191.96288889382</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E31" t="n">
-        <v>2191.96288889382</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>2191.96288889382</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>2650.316241858688</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>2360.899071821727</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>2360.899071821727</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>2360.899071821727</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1037.245832578329</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>1037.245832578329</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>626.2599277887211</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2669.933035536898</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2669.933035536898</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W32" t="n">
-        <v>2317.164380266784</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X32" t="n">
-        <v>1943.698622005704</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y32" t="n">
-        <v>1553.559290029893</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D34" t="n">
-        <v>728.1289842064342</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E34" t="n">
-        <v>580.2158906240411</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F34" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>1254.215699488315</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>895.9500008815642</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>895.9500008815642</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>2697.149091018222</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D37" t="n">
-        <v>2697.149091018222</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E37" t="n">
-        <v>2678.586644293418</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F37" t="n">
-        <v>2531.696696795508</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.69689653384</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1219.679656148628</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082162</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>745.7982343116905</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>327.8344262098774</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7213,13 +7213,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2369.884586449641</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.418828188561</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.27949621275</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="39">
@@ -7235,13 +7235,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7256,28 +7256,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C40" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y40" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1735.60643674436</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1735.60643674436</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1377.340738137609</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>991.5524855393649</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>580.5665807497573</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>162.6027726479442</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U41" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V41" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W41" t="n">
-        <v>2341.55044499227</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X41" t="n">
-        <v>1968.08468673119</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1577.945354755378</v>
+        <v>1735.60643674436</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U43" t="n">
-        <v>76.52029211334889</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1933.544000781331</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C44" t="n">
-        <v>1564.58148384092</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.315785234169</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>820.5275326359249</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>409.5416278463173</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,25 +7727,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G46" t="n">
-        <v>184.2708856551154</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036446</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.2708856551154</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493022</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>9.326139229268307</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.01032478445043</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>25.91996327974475</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.2921341996816</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>4.686710081535779</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>119.0338555867645</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>35.91382546819534</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.3290626114251</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.9954510508319</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>115.1383805067652</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>56.82580834555246</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>260.7615551004096</v>
+        <v>246.649586345662</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>50.80735538553381</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>190.1373041003744</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.85182100583739</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>62.63706558185075</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>127.6605584296516</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>77.25633142553842</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24186,7 +24186,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>147.4718178824606</v>
+        <v>54.40502554674163</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.0364861793052</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049790008</v>
+        <v>92.22568407628489</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.1950524039199</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329516</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.839037520545787</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>69.3320101567183</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>38.58154910012317</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>205.773122655889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>171.1131662764791</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>224.2802725817785</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G34" t="n">
-        <v>82.85718120047571</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>241.723626742761</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>49.14318588034217</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,13 +25213,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592655</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>52.7702428187394</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>79.72751176932934</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>216.3495798450532</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>268.1250320841898</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>223.3281785469225</v>
       </c>
       <c r="V43" t="n">
-        <v>229.7861061337734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>61.74151045510166</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>147.9111926018053</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>27.14626404539172</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>93.21719314673973</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.538025066</v>
@@ -26331,7 +26331,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26340,22 +26340,22 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
-      </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,25 +26432,25 @@
         <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="M4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
@@ -26459,7 +26459,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26502,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4669.27333958586</v>
+        <v>-16887.28395962632</v>
       </c>
       <c r="C6" t="n">
-        <v>76100.15819196191</v>
+        <v>63882.14757192141</v>
       </c>
       <c r="D6" t="n">
-        <v>76100.15819196191</v>
+        <v>63882.14757192144</v>
       </c>
       <c r="E6" t="n">
-        <v>-260126.5821281609</v>
+        <v>-266194.9958739803</v>
       </c>
       <c r="F6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690161</v>
       </c>
       <c r="G6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="H6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="I6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="J6" t="n">
-        <v>109659.649315729</v>
+        <v>103591.2355699097</v>
       </c>
       <c r="K6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="L6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="M6" t="n">
-        <v>64746.23124077708</v>
+        <v>58677.81749495782</v>
       </c>
       <c r="N6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="O6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="P6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,22 +26813,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34362,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659689</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684376.5094811316</v>
+        <v>745211.9843928317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>190.8385894655533</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,14 +1132,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>75.9243664640927</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>97.41446477089333</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>216.2238178556327</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1663,16 +1663,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>133.6709386027721</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>246.7356496276372</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250819</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>31.29558213980392</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>118.6233054253456</v>
+        <v>131.2830259545905</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.44734925172043</v>
+        <v>28.1011571445228</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>306.9516523317811</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>329.0785490664244</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.17142175228565</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>119.0805886067736</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>294.8359431706714</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>28.1011571445228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>274.1404730429161</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>321.5584859445101</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="28">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.1478855987996</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>28.13446210676943</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>82.59930608814295</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6652719985047</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>117.833098342877</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>242.6710037443159</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>25.31590541686258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.82811972447736</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>357.7328598613693</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>67.99372296047638</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>43.31785343913986</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>271.1525299456177</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>273.0472076947225</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>147.3596012393432</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.80276983270126</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>16.60557849018862</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>107.573192919304</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>14.82811972447759</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.9536956950552</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>221.8199080766637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>131.8179123113445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>670.1213740781145</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>670.1213740781145</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>670.1213740781145</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
         <v>506.1786963984129</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4764,7 +4764,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X8" t="n">
-        <v>376.1934816808115</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.1934816808115</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="9">
@@ -4913,13 +4913,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W9" t="n">
         <v>434.8929420806995</v>
@@ -4989,7 +4989,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.923258067584</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C11" t="n">
-        <v>1215.960741127172</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D11" t="n">
-        <v>857.6950425204218</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2598.750641754694</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.988856392786</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.988856392786</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.988856392786</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X11" t="n">
-        <v>1971.523098131706</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.523098131706</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064346</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1700.340352117536</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.377835177124</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.377835177124</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E14" t="n">
-        <v>945.5895825788796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2302.336936304455</v>
+        <v>2112.287096731138</v>
       </c>
       <c r="V14" t="n">
-        <v>2302.336936304455</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="W14" t="n">
-        <v>1949.568281034341</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X14" t="n">
-        <v>1700.340352117536</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y14" t="n">
-        <v>1700.340352117536</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="15">
@@ -5333,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1816.442957727742</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.62143709608</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>1338.355738489329</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2189.908715988822</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>2189.908715988822</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>1816.442957727742</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1816.442957727742</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.7458231623355</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="C19" t="n">
-        <v>517.7458231623355</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D19" t="n">
-        <v>517.7458231623355</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E19" t="n">
-        <v>369.8327295799424</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5718,7 +5718,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.3942879925752</v>
+        <v>699.7439769897445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1284.970060705655</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C20" t="n">
-        <v>1284.970060705655</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D20" t="n">
-        <v>1284.970060705655</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E20" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W20" t="n">
-        <v>2048.575150942547</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X20" t="n">
-        <v>1675.109392681467</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1284.970060705655</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5834,40 +5834,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.4305783960447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C22" t="n">
-        <v>506.4943954681378</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D22" t="n">
-        <v>506.4943954681378</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E22" t="n">
-        <v>358.5813018857447</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.875667274027</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.875667274027</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D23" t="n">
         <v>1595.875667274027</v>
@@ -5989,7 +5989,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W23" t="n">
-        <v>1595.875667274027</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.875667274027</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.875667274027</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.7439769897445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>530.8077940618376</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>380.6911546495019</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>699.7439769897445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>699.7439769897445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>699.7439769897445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.7439769897445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1902.75190621448</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C26" t="n">
-        <v>1533.789389274068</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>1175.523690667317</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>789.7354380690731</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>378.7495332794655</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y26" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6323,7 +6323,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.9088977430002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6429,7 +6429,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.9088977430002</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1662.48357412947</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C29" t="n">
-        <v>1293.521057189058</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.521057189058</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="E29" t="n">
-        <v>1293.521057189058</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>882.5351523994505</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>464.5713442976373</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>137.3766243336402</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6493,22 +6493,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X29" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y29" t="n">
-        <v>1662.48357412947</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="30">
@@ -6563,7 +6563,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C31" t="n">
-        <v>370.8558756644252</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D31" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.820796875036</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1395.511531185079</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="C32" t="n">
-        <v>1395.511531185079</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D32" t="n">
-        <v>1037.245832578329</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E32" t="n">
-        <v>1037.245832578329</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>626.2599277887211</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,10 +6700,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224076</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.880026519315</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.111371249201</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.111371249201</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.111371249201</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6797,7 +6797,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.4805193761947</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C34" t="n">
-        <v>377.5443364482878</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>227.4276970359521</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>79.51460345355898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1623.178216428726</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C35" t="n">
-        <v>1254.215699488315</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D35" t="n">
-        <v>895.9500008815642</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E35" t="n">
-        <v>895.9500008815642</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2573.439873305811</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2242.37698596224</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>1889.608330692125</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.317548404538</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.178216428726</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
@@ -7022,19 +7022,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="C37" t="n">
-        <v>656.6110348804735</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="D37" t="n">
-        <v>506.4943954681378</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="E37" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036446</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1525.74665604171</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>1156.784139101298</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>1156.784139101298</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>1156.784139101298</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>745.7982343116905</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>327.8344262098774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,10 +7174,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224075</v>
@@ -7186,7 +7186,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7216,10 +7216,10 @@
         <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.885988017521</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y38" t="n">
-        <v>1525.74665604171</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7256,40 +7256,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>125.4609311463253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1735.60643674436</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C41" t="n">
-        <v>1735.60643674436</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D41" t="n">
-        <v>1377.340738137609</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E41" t="n">
-        <v>991.5524855393649</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>580.5665807497573</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>162.6027726479442</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7423,40 +7423,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2125.745768720171</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2125.745768720171</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1735.60643674436</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7511,31 +7511,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7599,22 +7599,22 @@
         <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.831893336434</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>892.8693763960225</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D44" t="n">
-        <v>534.603677789272</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.831893336434</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.831893336434</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C46" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D46" t="n">
-        <v>380.6911546495019</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X46" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y46" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.269243651622</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>269.6014437650281</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.326139229268307</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23004,10 +23004,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.4049153562469</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23229,10 +23229,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>278.7586751565902</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>119.0338555867645</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>35.91382546819534</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>117.5532289055172</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>122.9954510508319</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>115.1383805067652</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923383</v>
@@ -23706,16 +23706,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>246.649586345662</v>
+        <v>233.989865816417</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.1373041003744</v>
+        <v>190.483496207572</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>75.78218933169944</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>52.85182100583739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.6605584296516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>263.653253056707</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>54.40502554674163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>224.0364861793052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>91.13241872809141</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>92.22568407628489</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24496,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.43676775329516</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>353.7959079654923</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.3320101567183</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>38.58154910012317</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>5.984738727581259</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>247.4397934281305</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>171.1131662764791</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7565336276174</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>49.14318588034217</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,7 +25210,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>183.2304445478129</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>96.44405126592655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>103.1161092074293</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>52.7702428187394</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>96.68389298374649</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>19.88721985928461</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,19 +25560,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>64.16285195963697</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>348.6673132808189</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>216.3495798450532</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25681,7 +25681,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>152.4187013741503</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>223.3281785469225</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>147.9111926018053</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21719314673973</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>223.7711021726251</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.394406236</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778477</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
@@ -26328,10 +26328,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
+        <v>231322.088012606</v>
+      </c>
+      <c r="H2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="O2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="P2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429963</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962632</v>
+        <v>-5891.074401589906</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192141</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192144</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="E6" t="n">
-        <v>-266194.9958739803</v>
+        <v>-260733.4235027427</v>
       </c>
       <c r="F6" t="n">
-        <v>166651.1781690161</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="G6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699097</v>
+        <v>109052.807941147</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="M6" t="n">
-        <v>58677.81749495782</v>
+        <v>64139.38986619514</v>
       </c>
       <c r="N6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26755,10 +26755,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34362,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
